--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_171__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_0/metrics/Trial_171__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,25 +5987,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>91.52708435058594</c:v>
+                  <c:v>91.52707672119141</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.18095016479492</c:v>
+                  <c:v>58.18094635009766</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.687006950378418</c:v>
+                  <c:v>4.687008380889893</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>89.95304870605469</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.78833770751953</c:v>
+                  <c:v>91.78834533691406</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93.96128082275391</c:v>
+                  <c:v>93.96126556396484</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>-0.2601935565471649</c:v>
@@ -6014,19 +6014,19 @@
                   <c:v>60.276611328125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92.78450775146484</c:v>
+                  <c:v>92.78450012207031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.81964874267578</c:v>
+                  <c:v>91.81964111328125</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.03553760796785355</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>89.31298828125</c:v>
+                  <c:v>89.31299591064453</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90.72655487060547</c:v>
+                  <c:v>90.72654724121094</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-0.2601935565471649</c:v>
@@ -6041,19 +6041,19 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>81.68862915039062</c:v>
+                  <c:v>81.68863677978516</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.4764657318592072</c:v>
+                  <c:v>0.4764653742313385</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>66.47599029541016</c:v>
+                  <c:v>66.47599792480469</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92.36602020263672</c:v>
+                  <c:v>92.36601257324219</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>-0.2601935565471649</c:v>
@@ -6065,22 +6065,22 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42.12204742431641</c:v>
+                  <c:v>42.12203979492188</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>92.21865844726562</c:v>
+                  <c:v>92.21867370605469</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>92.67679595947266</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>26.16308975219727</c:v>
+                  <c:v>26.1630916595459</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.45882797241211</c:v>
+                  <c:v>22.45882225036621</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-0.2601935565471649</c:v>
@@ -6098,13 +6098,13 @@
                   <c:v>89.76174163818359</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>27.94851303100586</c:v>
+                  <c:v>27.94850921630859</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>93.83367156982422</c:v>
+                  <c:v>93.83366394042969</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.37636184692383</c:v>
+                  <c:v>49.37635803222656</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>68.90110778808594</c:v>
@@ -6113,13 +6113,13 @@
                   <c:v>92.86888885498047</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>92.33636474609375</c:v>
+                  <c:v>92.33637237548828</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55.37398910522461</c:v>
+                  <c:v>55.37398529052734</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.60592651367188</c:v>
+                  <c:v>90.60591125488281</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>92.61387634277344</c:v>
@@ -6131,31 +6131,31 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>72.36885070800781</c:v>
+                  <c:v>72.36883544921875</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>93.10790252685547</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>37.65273666381836</c:v>
+                  <c:v>37.65272903442383</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>32.52069854736328</c:v>
+                  <c:v>32.52069473266602</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>91.09648895263672</c:v>
+                  <c:v>91.09649658203125</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>66.19088745117188</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>14.33493900299072</c:v>
+                  <c:v>14.33493709564209</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.2601935565471649</c:v>
@@ -6176,19 +6176,19 @@
                   <c:v>87.84473419189453</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>87.2037353515625</c:v>
+                  <c:v>87.20372009277344</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43.92999649047852</c:v>
+                  <c:v>43.92999267578125</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>91.26776123046875</c:v>
+                  <c:v>91.26776885986328</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>55.60329437255859</c:v>
+                  <c:v>55.6032829284668</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>-0.2601935565471649</c:v>
@@ -6197,13 +6197,13 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>91.40132904052734</c:v>
+                  <c:v>91.40133666992188</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>91.36152648925781</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>92.19184112548828</c:v>
+                  <c:v>92.19184875488281</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>93.19548034667969</c:v>
@@ -6215,13 +6215,13 @@
                   <c:v>68.52353668212891</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>87.18221282958984</c:v>
+                  <c:v>87.18220520019531</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>90.42764282226562</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>60.1473503112793</c:v>
+                  <c:v>60.14735412597656</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>-0.2601935565471649</c:v>
@@ -6236,7 +6236,7 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>84.14305877685547</c:v>
+                  <c:v>84.14306640625</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>66.9403076171875</c:v>
@@ -6248,7 +6248,7 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>21.52008819580078</c:v>
+                  <c:v>21.52008438110352</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>91.46602630615234</c:v>
@@ -6260,16 +6260,16 @@
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>74.24221038818359</c:v>
+                  <c:v>74.24220275878906</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92.53432464599609</c:v>
+                  <c:v>92.53433227539062</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-0.2601935565471649</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>91.61823272705078</c:v>
+                  <c:v>91.61824035644531</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>-0.2601935565471649</c:v>
@@ -6281,7 +6281,7 @@
                   <c:v>33.41527557373047</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>57.22123718261719</c:v>
+                  <c:v>57.22122955322266</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>92.44127655029297</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>91.52708435058594</v>
+        <v>91.52707672119141</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>88.0701</v>
       </c>
       <c r="F4">
-        <v>58.18095016479492</v>
+        <v>58.18094635009766</v>
       </c>
       <c r="G4">
         <v>100</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.687006950378418</v>
+        <v>4.687008380889893</v>
       </c>
       <c r="G5">
         <v>100</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>91.78833770751953</v>
+        <v>91.78834533691406</v>
       </c>
       <c r="G7">
         <v>100</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>93.96128082275391</v>
+        <v>93.96126556396484</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7231,7 +7231,7 @@
         <v>94.40819999999999</v>
       </c>
       <c r="F11">
-        <v>92.78450775146484</v>
+        <v>92.78450012207031</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>91.81964874267578</v>
+        <v>91.81964111328125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>89.31298828125</v>
+        <v>89.31299591064453</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>90.72655487060547</v>
+        <v>90.72654724121094</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>81.68862915039062</v>
+        <v>81.68863677978516</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4764657318592072</v>
+        <v>0.4764653742313385</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>66.47599029541016</v>
+        <v>66.47599792480469</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>92.36602020263672</v>
+        <v>92.36601257324219</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>42.12204742431641</v>
+        <v>42.12203979492188</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>92.21865844726562</v>
+        <v>92.21867370605469</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>26.16308975219727</v>
+        <v>26.1630916595459</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>22.45882797241211</v>
+        <v>22.45882225036621</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>27.94851303100586</v>
+        <v>27.94850921630859</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>97.63800000000001</v>
       </c>
       <c r="F40">
-        <v>93.83367156982422</v>
+        <v>93.83366394042969</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>49.37636184692383</v>
+        <v>49.37635803222656</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>92.33636474609375</v>
+        <v>92.33637237548828</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>55.37398910522461</v>
+        <v>55.37398529052734</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>90.426</v>
       </c>
       <c r="F46">
-        <v>90.60592651367188</v>
+        <v>90.60591125488281</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>60.2136</v>
       </c>
       <c r="F50">
-        <v>72.36885070800781</v>
+        <v>72.36883544921875</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>37.65273666381836</v>
+        <v>37.65272903442383</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>32.52069854736328</v>
+        <v>32.52069473266602</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>92.9953</v>
       </c>
       <c r="F56">
-        <v>91.09648895263672</v>
+        <v>91.09649658203125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>14.33493900299072</v>
+        <v>14.33493709564209</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>87.2037353515625</v>
+        <v>87.20372009277344</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>39.3514</v>
       </c>
       <c r="F66">
-        <v>43.92999649047852</v>
+        <v>43.92999267578125</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>91.26776123046875</v>
+        <v>91.26776885986328</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>55.60329437255859</v>
+        <v>55.6032829284668</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>94.26949999999999</v>
       </c>
       <c r="F72">
-        <v>91.40132904052734</v>
+        <v>91.40133666992188</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>92.19184112548828</v>
+        <v>92.19184875488281</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>87.18221282958984</v>
+        <v>87.18220520019531</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>49.6912</v>
       </c>
       <c r="F80">
-        <v>60.1473503112793</v>
+        <v>60.14735412597656</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>60.5714</v>
       </c>
       <c r="F85">
-        <v>84.14305877685547</v>
+        <v>84.14306640625</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>21.52008819580078</v>
+        <v>21.52008438110352</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>74.24221038818359</v>
+        <v>74.24220275878906</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>92.53432464599609</v>
+        <v>92.53433227539062</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>91.61823272705078</v>
+        <v>91.61824035644531</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>57.22123718261719</v>
+        <v>57.22122955322266</v>
       </c>
     </row>
     <row r="101" spans="1:6">
